--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-IT145632.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-IT145632.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1857F3D-2A73-4310-8E87-CFEAC440EBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC012F50-AAA5-49D3-AEE1-AC1857CBCBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{CE1236F7-7801-4790-8A69-4F242D1D22AD}"/>
   </bookViews>
@@ -25,27 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Concierge Services</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>IT Support</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>Waste management services</t>
+    <t>Various paper supplies</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E922A67-5F4D-49A2-A3AB-D7670307CBB8}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,140 +412,347 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>917321</v>
+        <v>434944</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1">
-        <v>129530</v>
+        <v>133951</v>
       </c>
       <c r="D1">
-        <v>25906</v>
+        <v>26790.2</v>
       </c>
       <c r="E1">
-        <v>155436</v>
+        <v>160741</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1">
-        <v>42748</v>
+        <v>42758</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>423323</v>
+        <v>195708</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>172270</v>
+        <v>95132</v>
       </c>
       <c r="D2">
-        <v>34454</v>
+        <v>19026.400000000001</v>
       </c>
       <c r="E2">
-        <v>206724</v>
+        <v>114158</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>42801</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>865778</v>
+        <v>729192</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>251136</v>
+        <v>156811</v>
       </c>
       <c r="D3">
-        <v>50227.199999999997</v>
+        <v>31362.2</v>
       </c>
       <c r="E3">
-        <v>301363</v>
+        <v>188173</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>42862</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>313223</v>
+        <v>847193</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>279984</v>
+        <v>22445</v>
       </c>
       <c r="D4">
-        <v>55996.800000000003</v>
+        <v>4489</v>
       </c>
       <c r="E4">
-        <v>335981</v>
+        <v>26934</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1">
-        <v>42912</v>
+        <v>42903</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>602049</v>
+        <v>872034</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>15120</v>
+        <v>265785</v>
       </c>
       <c r="D5">
-        <v>3024</v>
+        <v>53157</v>
       </c>
       <c r="E5">
-        <v>18144</v>
+        <v>318942</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>42965</v>
+        <v>42914</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>565677</v>
+        <v>255684</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>217061</v>
+        <v>280040</v>
       </c>
       <c r="D6">
-        <v>43412.2</v>
+        <v>56008</v>
       </c>
       <c r="E6">
-        <v>260473</v>
+        <v>336048</v>
       </c>
       <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>860604</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>112253</v>
+      </c>
+      <c r="D7">
+        <v>22450.6</v>
+      </c>
+      <c r="E7">
+        <v>134704</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>785354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>99954</v>
+      </c>
+      <c r="D8">
+        <v>19990.8</v>
+      </c>
+      <c r="E8">
+        <v>119945</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>541707</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>145510</v>
+      </c>
+      <c r="D9">
+        <v>29102</v>
+      </c>
+      <c r="E9">
+        <v>174612</v>
+      </c>
+      <c r="F9" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>42980</v>
+      <c r="G9" s="1">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>261649</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>294699</v>
+      </c>
+      <c r="D10">
+        <v>58939.8</v>
+      </c>
+      <c r="E10">
+        <v>353639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>142422</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>50253</v>
+      </c>
+      <c r="D11">
+        <v>10050.6</v>
+      </c>
+      <c r="E11">
+        <v>60303.6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>679902</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>289322</v>
+      </c>
+      <c r="D12">
+        <v>57864.4</v>
+      </c>
+      <c r="E12">
+        <v>347186</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>611184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>257385</v>
+      </c>
+      <c r="D13">
+        <v>51477</v>
+      </c>
+      <c r="E13">
+        <v>308862</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>620814</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>74316</v>
+      </c>
+      <c r="D14">
+        <v>14863.2</v>
+      </c>
+      <c r="E14">
+        <v>89179.199999999997</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>136569</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>90618</v>
+      </c>
+      <c r="D15">
+        <v>18123.599999999999</v>
+      </c>
+      <c r="E15">
+        <v>108742</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43084</v>
       </c>
     </row>
   </sheetData>
